--- a/examples/notebooks/meine_notenliste.xlsx
+++ b/examples/notebooks/meine_notenliste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">w_th=0,4</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_KT_0=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w_sm=3</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -279,7 +285,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -315,10 +321,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>45210</v>
@@ -341,10 +347,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>2</v>
@@ -365,10 +371,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>2</v>
@@ -381,7 +387,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,10 +395,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>3</v>
